--- a/formula-v2.xlsx
+++ b/formula-v2.xlsx
@@ -183,7 +183,286 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <r>
-      <t>Каркас (коэфицент=</t>
+      <t>Тип 1 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 2 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 3 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 4 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 1 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 2 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18860</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 3 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>17000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 4 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>17800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 1 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18970</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 2 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>19200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 1 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18970</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тип 4 (цена метра=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадь </t>
+  </si>
+  <si>
+    <t>Базовая цена 1</t>
+  </si>
+  <si>
+    <t>Базовая цена 2</t>
+  </si>
+  <si>
+    <t>Базовая цена 3</t>
+  </si>
+  <si>
+    <t>Базовая цена 4</t>
+  </si>
+  <si>
+    <r>
+      <t>Комплектация 1 (коэфицент=</t>
     </r>
     <r>
       <rPr>
@@ -204,291 +483,6 @@
     </r>
   </si>
   <si>
-    <t>Газобетон (коэфицент=)</t>
-  </si>
-  <si>
-    <t>Кирпич (коэфицент=)</t>
-  </si>
-  <si>
-    <r>
-      <t>Тип 1 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>13500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 2 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>13900</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 3 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>13000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 4 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>13900</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 1 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>18560</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 2 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>18860</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 3 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>17000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 4 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>17800</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 1 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>18970</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 2 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>19200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 1 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>18970</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Тип 4 (цена метра=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>18100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадь </t>
-  </si>
-  <si>
-    <t>Базовая цена 1</t>
-  </si>
-  <si>
-    <t>Базовая цена 2</t>
-  </si>
-  <si>
-    <t>Базовая цена 3</t>
-  </si>
-  <si>
-    <t>Базовая цена 4</t>
-  </si>
-  <si>
     <r>
       <t>Комплектация 1 (коэфицент=</t>
     </r>
@@ -731,28 +725,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Комплектация 1 (коэфицент=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Комплектация 2 (коэфицент=)</t>
   </si>
   <si>
@@ -765,9 +737,6 @@
     <t>Формула рассчета:</t>
   </si>
   <si>
-    <t>Материал * Тип * Площадь * Комплектация = Итоговая стоимость</t>
-  </si>
-  <si>
     <t>Короткая запись:</t>
   </si>
   <si>
@@ -787,6 +756,18 @@
   </si>
   <si>
     <t>Материал 3</t>
+  </si>
+  <si>
+    <t>Газобетон</t>
+  </si>
+  <si>
+    <t>Каркас</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>Тип * Площадь * Комплектация = Итоговая стоимость</t>
   </si>
 </sst>
 </file>
@@ -911,15 +892,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1216,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1227,20 +1208,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
+      <c r="A1" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
+      <c r="E1" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="7" t="s">
-        <v>2</v>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1248,57 +1229,57 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
@@ -1306,235 +1287,235 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>41</v>
+      <c r="A17" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="11" t="s">
-        <v>42</v>
+      <c r="E17" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="11" t="s">
-        <v>43</v>
+      <c r="I17" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
